--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/28.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/28.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2509399503743231</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.598664211552293</v>
+        <v>-1.600352347059888</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1531986082067955</v>
+        <v>0.1515742204736132</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2455838582320976</v>
+        <v>-0.2451431328781334</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2701415121970285</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.530618577928904</v>
+        <v>-1.533182655077503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1014495815557928</v>
+        <v>0.1004390612799178</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.248894020444193</v>
+        <v>-0.2484580171475927</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2905771020199854</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.48522150544191</v>
+        <v>-1.489012530495563</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0970785304559408</v>
+        <v>0.09622541209219582</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2588937639218162</v>
+        <v>-0.2584498905296095</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.292556383231738</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.554630239624346</v>
+        <v>-1.558333119607206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1241437892467061</v>
+        <v>0.1236070487263426</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2355494863338058</v>
+        <v>-0.2355117098748945</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2781759795577522</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.589358610507163</v>
+        <v>-1.592361838990605</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1088427493685421</v>
+        <v>0.1089230243437285</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2614373788218382</v>
+        <v>-0.2613287715024684</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2601999655532242</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.476248809440935</v>
+        <v>-1.478982880654635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1218205370236663</v>
+        <v>0.1224658848633996</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2532446092954681</v>
+        <v>-0.2531863705879799</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.25167572444282</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.261941384018483</v>
+        <v>-1.263654703832018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1581284360947093</v>
+        <v>0.1595135729214539</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.259535963723307</v>
+        <v>-0.2593612476008426</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2552286433668349</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005462838298142</v>
+        <v>-1.005852408030664</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1797066642286204</v>
+        <v>0.1816537258816694</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2570175331292258</v>
+        <v>-0.2567216175344213</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2669265960171947</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.593166630693322</v>
+        <v>-0.5928266425631211</v>
       </c>
       <c r="F10" t="n">
-        <v>0.168460297606927</v>
+        <v>0.1707095709312657</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1650948164452657</v>
+        <v>-0.1652301820896975</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2835822220519726</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2207332443450024</v>
+        <v>-0.2193780138815625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1382863510515928</v>
+        <v>0.1404584974389878</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1294385612904412</v>
+        <v>-0.1293157877989797</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.3028706839399551</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2401789048498715</v>
+        <v>0.2420000449732164</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1038184803333503</v>
+        <v>0.1051170461084234</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03900329267611017</v>
+        <v>-0.03897496033192675</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3172878079905876</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7643918070269738</v>
+        <v>0.7673415188602913</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.004691249850876474</v>
+        <v>-0.004488201384228686</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05481454302989603</v>
+        <v>0.05493889054047878</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3155542411883221</v>
       </c>
       <c r="E14" t="n">
-        <v>1.308930018117432</v>
+        <v>1.312517207694876</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2293273887473041</v>
+        <v>-0.228593895836778</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1588745211582058</v>
+        <v>0.1591499745044334</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2911068006234718</v>
       </c>
       <c r="E15" t="n">
-        <v>1.870278753423382</v>
+        <v>1.874010752759985</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4408692625736313</v>
+        <v>-0.4401751201411377</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2925370769008176</v>
+        <v>0.2928030861323174</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2429642184342175</v>
       </c>
       <c r="E16" t="n">
-        <v>2.34164081556457</v>
+        <v>2.346041773027727</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.665023751618941</v>
+        <v>-0.6648852379362665</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4370005518537947</v>
+        <v>0.4371736939571378</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.1728016540160228</v>
       </c>
       <c r="E17" t="n">
-        <v>2.796330867172943</v>
+        <v>2.80132522984483</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8778342848570366</v>
+        <v>-0.8785843049683364</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5560672282845852</v>
+        <v>0.5565142497150346</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.08972671110874554</v>
       </c>
       <c r="E18" t="n">
-        <v>3.219087218848367</v>
+        <v>3.223971400181763</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.206084167460885</v>
+        <v>-1.206821595419215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6774146584221404</v>
+        <v>0.6779781572675662</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.004408650212013645</v>
       </c>
       <c r="E19" t="n">
-        <v>3.593357485511244</v>
+        <v>3.59814407765912</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.505056507398981</v>
+        <v>-1.506397571690329</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8385060713725381</v>
+        <v>0.8390018873957478</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.08139230825045915</v>
       </c>
       <c r="E20" t="n">
-        <v>3.716757436582976</v>
+        <v>3.723023606704874</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.84117255056153</v>
+        <v>-1.842391628370977</v>
       </c>
       <c r="G20" t="n">
-        <v>1.014967781042437</v>
+        <v>1.015359711803641</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.1711976359782095</v>
       </c>
       <c r="E21" t="n">
-        <v>3.966466126062602</v>
+        <v>3.972743314318349</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.077928636691972</v>
+        <v>-2.079421593828526</v>
       </c>
       <c r="G21" t="n">
-        <v>1.183013210470741</v>
+        <v>1.1832540353963</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.2660370344656467</v>
       </c>
       <c r="E22" t="n">
-        <v>4.171609612160842</v>
+        <v>4.178041054290476</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374153526253837</v>
+        <v>-2.374863408877544</v>
       </c>
       <c r="G22" t="n">
-        <v>1.323311830828756</v>
+        <v>1.323636078767744</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3625273103357538</v>
       </c>
       <c r="E23" t="n">
-        <v>4.39714136793729</v>
+        <v>4.403097456292292</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.505843836037459</v>
+        <v>-2.506868522485426</v>
       </c>
       <c r="G23" t="n">
-        <v>1.494838990553378</v>
+        <v>1.494846860648984</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4569747941158057</v>
       </c>
       <c r="E24" t="n">
-        <v>4.524844687286657</v>
+        <v>4.530693742341411</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.620373402351101</v>
+        <v>-2.621404384875552</v>
       </c>
       <c r="G24" t="n">
-        <v>1.598870636337504</v>
+        <v>1.598867488299261</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5463158094289041</v>
       </c>
       <c r="E25" t="n">
-        <v>4.666328544043012</v>
+        <v>4.671521233124183</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817144680743142</v>
+        <v>-2.817319396865607</v>
       </c>
       <c r="G25" t="n">
-        <v>1.662073800134212</v>
+        <v>1.66205963396212</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6270442449646371</v>
       </c>
       <c r="E26" t="n">
-        <v>4.78030956469288</v>
+        <v>4.784789223112102</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907197462710997</v>
+        <v>-2.907298986944321</v>
       </c>
       <c r="G26" t="n">
-        <v>1.70533414166404</v>
+        <v>1.705091742719359</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6949580767960336</v>
       </c>
       <c r="E27" t="n">
-        <v>4.891603734702688</v>
+        <v>4.894797419499807</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980183942356149</v>
+        <v>-2.979777058413293</v>
       </c>
       <c r="G27" t="n">
-        <v>1.755992373063981</v>
+        <v>1.755474520773073</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7462450169449462</v>
       </c>
       <c r="E28" t="n">
-        <v>4.891536051880472</v>
+        <v>4.894403914719482</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069941595738761</v>
+        <v>-3.068991675199055</v>
       </c>
       <c r="G28" t="n">
-        <v>1.797497683273559</v>
+        <v>1.796646138928935</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.779673943186366</v>
       </c>
       <c r="E29" t="n">
-        <v>4.9011296984248</v>
+        <v>4.903358509500562</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.084138461203332</v>
+        <v>-3.082843043466502</v>
       </c>
       <c r="G29" t="n">
-        <v>1.728492684995737</v>
+        <v>1.727943352322403</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7958833795986038</v>
       </c>
       <c r="E30" t="n">
-        <v>4.842914601223494</v>
+        <v>4.84513711622277</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.074107237343283</v>
+        <v>-3.072630020397942</v>
       </c>
       <c r="G30" t="n">
-        <v>1.69230126333967</v>
+        <v>1.691649619423452</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7976506008975285</v>
       </c>
       <c r="E31" t="n">
-        <v>4.717872948208246</v>
+        <v>4.719730290771381</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.063331502438858</v>
+        <v>-3.061292360667213</v>
       </c>
       <c r="G31" t="n">
-        <v>1.633580906000427</v>
+        <v>1.632899355720904</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7881091678116515</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638147305695244</v>
+        <v>4.639373466590738</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.024690120020487</v>
+        <v>-3.022543157939033</v>
       </c>
       <c r="G32" t="n">
-        <v>1.596051568091254</v>
+        <v>1.595185857574539</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.770008925506484</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560919631527748</v>
+        <v>4.560977870235236</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.955670955570573</v>
+        <v>-2.953413025141067</v>
       </c>
       <c r="G33" t="n">
-        <v>1.567165169177144</v>
+        <v>1.565765866178308</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7454757642967579</v>
       </c>
       <c r="E34" t="n">
-        <v>4.358396887266474</v>
+        <v>4.358798262142405</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.883779993233846</v>
+        <v>-2.88119466682711</v>
       </c>
       <c r="G34" t="n">
-        <v>1.51691460872962</v>
+        <v>1.515247722480162</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7156993336389288</v>
       </c>
       <c r="E35" t="n">
-        <v>4.133633252821221</v>
+        <v>4.133818987077534</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.852464095806008</v>
+        <v>-2.849493921724114</v>
       </c>
       <c r="G35" t="n">
-        <v>1.395516809980183</v>
+        <v>1.394089174637163</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.681272636920483</v>
       </c>
       <c r="E36" t="n">
-        <v>3.982974438606804</v>
+        <v>3.982612414208905</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.827470246178875</v>
+        <v>-2.824264756238346</v>
       </c>
       <c r="G36" t="n">
-        <v>1.369400684719562</v>
+        <v>1.367598432825673</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6426094149452566</v>
       </c>
       <c r="E37" t="n">
-        <v>3.787286085370217</v>
+        <v>3.786546296383206</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.763637474733647</v>
+        <v>-2.760431984793118</v>
       </c>
       <c r="G37" t="n">
-        <v>1.282091418080134</v>
+        <v>1.280509528863227</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6002875985205353</v>
       </c>
       <c r="E38" t="n">
-        <v>3.718254328767333</v>
+        <v>3.716518185676538</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.732715869095695</v>
+        <v>-2.729111365307916</v>
       </c>
       <c r="G38" t="n">
-        <v>1.239254487693936</v>
+        <v>1.237244465276035</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5558481609493626</v>
       </c>
       <c r="E39" t="n">
-        <v>3.508369897075735</v>
+        <v>3.506227657051645</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.750575477055533</v>
+        <v>-2.746606587841173</v>
       </c>
       <c r="G39" t="n">
-        <v>1.1640856305371</v>
+        <v>1.162086626253048</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5112434428069355</v>
       </c>
       <c r="E40" t="n">
-        <v>3.262701714680488</v>
+        <v>3.260468181547362</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.716211491599296</v>
+        <v>-2.711899466216493</v>
       </c>
       <c r="G40" t="n">
-        <v>1.099964813592674</v>
+        <v>1.097957939213016</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4681295760091109</v>
       </c>
       <c r="E41" t="n">
-        <v>3.090842436921272</v>
+        <v>3.088338172499283</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.655508657176775</v>
+        <v>-2.651327275381039</v>
       </c>
       <c r="G41" t="n">
-        <v>1.068087778348092</v>
+        <v>1.06595498243873</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4272956316076367</v>
       </c>
       <c r="E42" t="n">
-        <v>2.977590187124566</v>
+        <v>2.97413364113419</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.624641355198507</v>
+        <v>-2.620323033739219</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9838604411481714</v>
+        <v>0.9818598628449983</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3894300367930335</v>
       </c>
       <c r="E43" t="n">
-        <v>2.84452733266717</v>
+        <v>2.840505713812247</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.608090544138031</v>
+        <v>-2.603453483806679</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9317399459845417</v>
+        <v>0.9297724220829159</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3535832730407551</v>
       </c>
       <c r="E44" t="n">
-        <v>2.71644624872869</v>
+        <v>2.711777708014913</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.53614606515118</v>
+        <v>-2.531760847879236</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8676584795181481</v>
+        <v>0.8655256836087857</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3179156064832145</v>
       </c>
       <c r="E45" t="n">
-        <v>2.51976154138832</v>
+        <v>2.515083556559815</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.470684183915405</v>
+        <v>-2.466414657048877</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8378024848253167</v>
+        <v>0.8355327492524011</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2808479452078932</v>
       </c>
       <c r="E46" t="n">
-        <v>2.394178425795345</v>
+        <v>2.389092770014423</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.431264449041551</v>
+        <v>-2.426608500480743</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7744387710782362</v>
+        <v>0.7721989418686253</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2416818247379101</v>
       </c>
       <c r="E47" t="n">
-        <v>2.231157265402233</v>
+        <v>2.226090497850766</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.295705987267332</v>
+        <v>-2.291689877479334</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7180526840958816</v>
+        <v>0.7158160029245134</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2008197814905194</v>
       </c>
       <c r="E48" t="n">
-        <v>2.143500140536998</v>
+        <v>2.13791237265638</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.254953058197736</v>
+        <v>-2.250494649036652</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6693792908079005</v>
+        <v>0.6670812228908015</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1583184916995001</v>
       </c>
       <c r="E49" t="n">
-        <v>1.990389004531594</v>
+        <v>1.984602910241693</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.203095424227364</v>
+        <v>-2.198585859444837</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5949297603894992</v>
+        <v>0.5925545655354565</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1143826177961872</v>
       </c>
       <c r="E50" t="n">
-        <v>1.89733614211854</v>
+        <v>1.891471346872574</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.155673376140816</v>
+        <v>-2.151156728272244</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5381438725503344</v>
+        <v>0.5358757109965401</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.06937224968601405</v>
       </c>
       <c r="E51" t="n">
-        <v>1.773424634832386</v>
+        <v>1.767613356236544</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.105741554565356</v>
+        <v>-2.10111236432961</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4929899860175815</v>
+        <v>0.4907517308270919</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.02378263572172943</v>
       </c>
       <c r="E52" t="n">
-        <v>1.661888065877898</v>
+        <v>1.656177524505819</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.98703139346554</v>
+        <v>-1.983202591952976</v>
       </c>
       <c r="G52" t="n">
-        <v>0.457464374449825</v>
+        <v>0.4551962128960307</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.02135461253075068</v>
       </c>
       <c r="E53" t="n">
-        <v>1.618901603675176</v>
+        <v>1.612633859534157</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.927542914795101</v>
+        <v>-1.923699160100885</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3860290906487145</v>
+        <v>0.3840883250721508</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.06570974973744075</v>
       </c>
       <c r="E54" t="n">
-        <v>1.576121337977345</v>
+        <v>1.569131119059649</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.917328317707421</v>
+        <v>-1.913253969211934</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3516273287335667</v>
+        <v>0.3496912852143669</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1088516407354418</v>
       </c>
       <c r="E55" t="n">
-        <v>1.521548521022729</v>
+        <v>1.514130168904039</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.851960090609364</v>
+        <v>-1.848178509670439</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3247462301799936</v>
+        <v>0.3226811170928471</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1503792905386518</v>
       </c>
       <c r="E56" t="n">
-        <v>1.463684430085473</v>
+        <v>1.455897757492399</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.789815454671731</v>
+        <v>-1.786421082436646</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2168424973574675</v>
+        <v>0.2154809708175424</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1901512676807103</v>
       </c>
       <c r="E57" t="n">
-        <v>1.474132769012667</v>
+        <v>1.465773153459439</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.787584282567287</v>
+        <v>-1.784196993418248</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2178955161496177</v>
+        <v>0.2163041828179827</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2278261766037276</v>
       </c>
       <c r="E58" t="n">
-        <v>1.45971160582331</v>
+        <v>1.450772751233443</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.772568927159639</v>
+        <v>-1.769276866167439</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2135134469159166</v>
+        <v>0.2118276724370035</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2632022951248998</v>
       </c>
       <c r="E59" t="n">
-        <v>1.448290523079152</v>
+        <v>1.438898350982351</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.735845487040573</v>
+        <v>-1.732996512431018</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1393692762070477</v>
+        <v>0.1380313599539421</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2967241015625627</v>
       </c>
       <c r="E60" t="n">
-        <v>1.48190527543365</v>
+        <v>1.47146165856382</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.768398563497753</v>
+        <v>-1.765286727694941</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1192218314543989</v>
+        <v>0.1178067882643496</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3296011951157456</v>
       </c>
       <c r="E61" t="n">
-        <v>1.480014878468968</v>
+        <v>1.469042391174381</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.786771301691135</v>
+        <v>-1.783625624477216</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1317604677746801</v>
+        <v>0.1300731192766458</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3632590114470557</v>
       </c>
       <c r="E62" t="n">
-        <v>1.491421795041034</v>
+        <v>1.479711092778557</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.830828883905902</v>
+        <v>-1.827473075139289</v>
       </c>
       <c r="G62" t="n">
-        <v>0.043999457647439</v>
+        <v>0.04275598254161146</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3981430781581322</v>
       </c>
       <c r="E63" t="n">
-        <v>1.47843298925206</v>
+        <v>1.466224896947252</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.791535070561752</v>
+        <v>-1.788674290808788</v>
       </c>
       <c r="G63" t="n">
-        <v>0.009638620229444988</v>
+        <v>0.008476994117925079</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.433769023507746</v>
       </c>
       <c r="E64" t="n">
-        <v>1.480295053872559</v>
+        <v>1.467687160710941</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.81907647013671</v>
+        <v>-1.816170043829229</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02070217235274707</v>
+        <v>-0.02185750238778178</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4687327326264717</v>
       </c>
       <c r="E65" t="n">
-        <v>1.491218746574386</v>
+        <v>1.47780338160354</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.844553543634083</v>
+        <v>-1.84164475629792</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02367864251112667</v>
+        <v>-0.02491896957871161</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5018685902910905</v>
       </c>
       <c r="E66" t="n">
-        <v>1.454679466692512</v>
+        <v>1.44151122272371</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.849709243265904</v>
+        <v>-1.847057808056073</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03195955710828959</v>
+        <v>-0.03318414398466153</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5323779118515933</v>
       </c>
       <c r="E67" t="n">
-        <v>1.42055158410447</v>
+        <v>1.406966225068524</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.861357771773089</v>
+        <v>-1.858957392613106</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05106500120263734</v>
+        <v>-0.05228171798340277</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5595211538424937</v>
       </c>
       <c r="E68" t="n">
-        <v>1.370540274563383</v>
+        <v>1.356828993997733</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.891114603261279</v>
+        <v>-1.888942456873884</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05839520825053464</v>
+        <v>-0.0596827558917586</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5819453559147296</v>
       </c>
       <c r="E69" t="n">
-        <v>1.266237897490393</v>
+        <v>1.253153076535021</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.912455941517434</v>
+        <v>-1.910374301229514</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08065656068309027</v>
+        <v>-0.08189216569331131</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5978529726116261</v>
       </c>
       <c r="E70" t="n">
-        <v>1.283109808451615</v>
+        <v>1.269382787694752</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.917503820839446</v>
+        <v>-1.915914061526932</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04922969490720074</v>
+        <v>-0.05073130914892159</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6059433119114477</v>
       </c>
       <c r="E71" t="n">
-        <v>1.27587876460836</v>
+        <v>1.262115541411707</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.951624620341441</v>
+        <v>-1.950326054566368</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06894743243973445</v>
+        <v>-0.07058598634500847</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6057933950922162</v>
       </c>
       <c r="E72" t="n">
-        <v>1.259494799574741</v>
+        <v>1.245545842121775</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.981037528651627</v>
+        <v>-1.979887707683516</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1041236117625622</v>
+        <v>-0.1055433770099754</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5963225474487754</v>
       </c>
       <c r="E73" t="n">
-        <v>1.264306576028557</v>
+        <v>1.250162440204549</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.980732955951655</v>
+        <v>-1.979693316322036</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09136776080354145</v>
+        <v>-0.09289928140856701</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5768245917768654</v>
       </c>
       <c r="E74" t="n">
-        <v>1.258770750778943</v>
+        <v>1.244321255245403</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.98856921014705</v>
+        <v>-1.987788496662885</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.0720466760895755</v>
+        <v>-0.07384577994522219</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5475793586844028</v>
       </c>
       <c r="E75" t="n">
-        <v>1.202603452454449</v>
+        <v>1.188613570504329</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.021314316937029</v>
+        <v>-2.020545408596274</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04398191515678424</v>
+        <v>-0.045954161115774</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5100746303190253</v>
       </c>
       <c r="E76" t="n">
-        <v>1.237719819050668</v>
+        <v>1.223649662125361</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.024393885347854</v>
+        <v>-2.023956308032132</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02401076054572112</v>
+        <v>-0.02617818487575216</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4668855213986093</v>
       </c>
       <c r="E77" t="n">
-        <v>1.171510278732276</v>
+        <v>1.157987880461181</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.021936841499504</v>
+        <v>-2.021566947005998</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02569810904375545</v>
+        <v>-0.02771442753814164</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4208629417133063</v>
       </c>
       <c r="E78" t="n">
-        <v>1.190683405648839</v>
+        <v>1.17748210727849</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.032507953918159</v>
+        <v>-2.032215973371158</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02061717532019683</v>
+        <v>-0.02266182615876643</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3747311042136364</v>
       </c>
       <c r="E79" t="n">
-        <v>1.175843553373216</v>
+        <v>1.163178995523231</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.00955245905311</v>
+        <v>-2.009258117477426</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04237169359569364</v>
+        <v>-0.04420699989113024</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3295353380766448</v>
       </c>
       <c r="E80" t="n">
-        <v>1.153574330845054</v>
+        <v>1.142052510877133</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.971170789789753</v>
+        <v>-1.970902419529571</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02615929664629656</v>
+        <v>-0.02801506519031007</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2856705606159551</v>
       </c>
       <c r="E81" t="n">
-        <v>1.177507291584431</v>
+        <v>1.166748870890341</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.924257936888947</v>
+        <v>-1.924180022942442</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.006471465477067552</v>
+        <v>-0.008289457562169847</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2446082110608631</v>
       </c>
       <c r="E82" t="n">
-        <v>1.235771183378497</v>
+        <v>1.225252013590845</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.952858651332541</v>
+        <v>-1.952195202272913</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0213351563198304</v>
+        <v>0.01938652064766015</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2079798618693482</v>
       </c>
       <c r="E83" t="n">
-        <v>1.322091966009748</v>
+        <v>1.312159905354341</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.847751163479006</v>
+        <v>-1.847293123914707</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01358153812830321</v>
+        <v>0.0119602984333635</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1758214451572727</v>
       </c>
       <c r="E84" t="n">
-        <v>1.315145819627448</v>
+        <v>1.306605191875271</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.786913750421613</v>
+        <v>-1.786186553587572</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02397321236713035</v>
+        <v>0.02247159812540949</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.146721279398892</v>
       </c>
       <c r="E85" t="n">
-        <v>1.423639809620462</v>
+        <v>1.415832674778811</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.759312538120045</v>
+        <v>-1.757965964761772</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01748510554912892</v>
+        <v>0.01624005642418007</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1196901204584631</v>
       </c>
       <c r="E86" t="n">
-        <v>1.668827916183713</v>
+        <v>1.661134110718795</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.654748086863358</v>
+        <v>-1.653233093459106</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03314974384431336</v>
+        <v>0.0320935770139206</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09482694993982677</v>
       </c>
       <c r="E87" t="n">
-        <v>1.60151656248041</v>
+        <v>1.596038975938284</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.53509194027164</v>
+        <v>-1.533231449670263</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05387327959535822</v>
+        <v>0.0529162759696074</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07256724197555373</v>
       </c>
       <c r="E88" t="n">
-        <v>1.748999006108042</v>
+        <v>1.743807891045993</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.335011286677064</v>
+        <v>-1.333382176886518</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09053533296869383</v>
+        <v>0.08961138374449033</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.05461126374965464</v>
       </c>
       <c r="E89" t="n">
-        <v>1.916422697983432</v>
+        <v>1.911661290141498</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159745831539354</v>
+        <v>-1.158363055741291</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1142526530884526</v>
+        <v>0.113349166112826</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04291830177131557</v>
       </c>
       <c r="E90" t="n">
-        <v>1.936650417711268</v>
+        <v>1.933072672248551</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9190326613379608</v>
+        <v>-0.9179639023545977</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1431201637731072</v>
+        <v>0.1421883444532972</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04001853317839215</v>
       </c>
       <c r="E91" t="n">
-        <v>1.97484556570875</v>
+        <v>1.971639288758661</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6664718492105377</v>
+        <v>-0.6655872504643666</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09582246319714284</v>
+        <v>0.09540534812999817</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.04778800023158615</v>
       </c>
       <c r="E92" t="n">
-        <v>1.990902134765138</v>
+        <v>1.98763604508844</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4610340215366145</v>
+        <v>-0.4601604409242926</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1071664190043569</v>
+        <v>0.1066312525031147</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.06512796169427872</v>
       </c>
       <c r="E93" t="n">
-        <v>1.964246120945911</v>
+        <v>1.961069750359127</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.240183398626915</v>
+        <v>-0.2396104556667615</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09214555452978444</v>
+        <v>0.09173158750088235</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.08512147046593088</v>
       </c>
       <c r="E94" t="n">
-        <v>1.851270898514555</v>
+        <v>1.848439238115335</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05702581161500304</v>
+        <v>-0.05649536717112471</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06684477117399719</v>
+        <v>0.06647959873785543</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09941751428756601</v>
       </c>
       <c r="E95" t="n">
-        <v>1.799989355542578</v>
+        <v>1.797411112221887</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07408211109373775</v>
+        <v>0.07481717802338517</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05456269997048792</v>
+        <v>0.05402438543100308</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1047126853084499</v>
       </c>
       <c r="E96" t="n">
-        <v>1.671689482946238</v>
+        <v>1.669374100818804</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1470756738249358</v>
+        <v>0.1478626833855862</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.00516188156814538</v>
+        <v>-0.005454649124707308</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1007848585925021</v>
       </c>
       <c r="E97" t="n">
-        <v>1.50551556225316</v>
+        <v>1.504040706336501</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1507022138804126</v>
+        <v>0.1520007796554857</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02041570087267034</v>
+        <v>-0.02073680077341569</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.09363209413362251</v>
       </c>
       <c r="E98" t="n">
-        <v>1.391687221458058</v>
+        <v>1.390489392906749</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1787921591191447</v>
+        <v>0.1799301749438451</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05859983073630373</v>
+        <v>-0.05902638991817621</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08925098030502787</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251632574063844</v>
+        <v>1.251001392396203</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1816804842067315</v>
+        <v>0.1829003490257395</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0983611277594804</v>
+        <v>-0.09860824876152462</v>
       </c>
     </row>
     <row r="100">
@@ -2733,10 +2733,10 @@
         <v>-0.09615617329337578</v>
       </c>
       <c r="E100" t="n">
-        <v>1.092143512578931</v>
+        <v>1.091940464112283</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2381248098965741</v>
+        <v>0.2386458102257246</v>
       </c>
       <c r="G100" t="n">
         <v>-0.1457060489090838</v>
@@ -2756,13 +2756,13 @@
         <v>-0.1133598385535349</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9096690498656634</v>
+        <v>0.9104749476557694</v>
       </c>
       <c r="F101" t="n">
-        <v>0.220080254689983</v>
+        <v>0.2207586569312636</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1714979262307169</v>
+        <v>-0.1715199624984151</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1456014537676274</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8500278913404591</v>
+        <v>0.8504764867900299</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2584186384275039</v>
+        <v>0.2587523304812197</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2095608566220101</v>
+        <v>-0.209502617914522</v>
       </c>
     </row>
   </sheetData>
